--- a/enterprise_responses.xlsx
+++ b/enterprise_responses.xlsx
@@ -399,7 +399,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
@@ -430,7 +430,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2025-01-24T18:35:43.740Z</v>
+        <v>2025-01-26T10:53:11.990Z</v>
       </c>
       <c r="B2" t="str">
         <v>John</v>

--- a/enterprise_responses.xlsx
+++ b/enterprise_responses.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -427,6 +427,9 @@
       <c r="H1" t="str">
         <v>Description</v>
       </c>
+      <c r="I1" t="str">
+        <v>UserEmail</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -454,9 +457,64 @@
         <v>Building an AI-based platform.</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>2025-01-26T10:57:06.510Z</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Johnty</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Rodes</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Tech Solutions Inc.+hello World</v>
+      </c>
+      <c r="E3" t="str">
+        <v>CTO</v>
+      </c>
+      <c r="F3" t="str">
+        <v>john.doe@techsolutions.com</v>
+      </c>
+      <c r="G3">
+        <v>150000</v>
+      </c>
+      <c r="H3" t="str">
+        <v xml:space="preserve">Building an AI-based platform. fcdoivnfdoin df jf ndfcini fdfn ioni fdoin ifod j cniodiod </v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>2025-01-26T11:02:32.074Z</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Hello</v>
+      </c>
+      <c r="C4" t="str">
+        <v>John</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Tech Solutions Inc.+hello World</v>
+      </c>
+      <c r="E4" t="str">
+        <v>CTO</v>
+      </c>
+      <c r="F4" t="str">
+        <v>john.doe@techsolutions.com</v>
+      </c>
+      <c r="G4">
+        <v>150000</v>
+      </c>
+      <c r="H4" t="str">
+        <v>Building an AI-based platform. fcdoivnfdoin df jf ndfcini fdfn ioni fdoin ifod j cniodiod bjkcdcdc</v>
+      </c>
+      <c r="I4" t="str">
+        <v>harshitrai11106@gmail.com</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I4"/>
   </ignoredErrors>
 </worksheet>
 </file>